--- a/data/trans_orig/BARTHEL_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10712</v>
+        <v>10127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27121</v>
+        <v>26732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05907100401162189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0366103991892914</v>
+        <v>0.03461206656197269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0926942114467699</v>
+        <v>0.0913654984727069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>35532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25691</v>
+        <v>25530</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47167</v>
+        <v>46903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1036108720710047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07491396273214634</v>
+        <v>0.07444592829509392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1375409312968701</v>
+        <v>0.1367700396308685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -786,19 +786,19 @@
         <v>52815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40165</v>
+        <v>40059</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66607</v>
+        <v>68767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08310534941488178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06320091494909449</v>
+        <v>0.06303398365290926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1048071003593287</v>
+        <v>0.1082056706851916</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>275300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265462</v>
+        <v>265851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281871</v>
+        <v>282456</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9409289959883781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.907305788553228</v>
+        <v>0.9086345015272932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9633896008107085</v>
+        <v>0.9653879334380273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>333</v>
@@ -836,19 +836,19 @@
         <v>307402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295767</v>
+        <v>296031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>317243</v>
+        <v>317404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8963891279289953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8624590687031298</v>
+        <v>0.8632299603691315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9250860372678535</v>
+        <v>0.925554071704906</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>618</v>
@@ -857,19 +857,19 @@
         <v>582702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>568910</v>
+        <v>566750</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>595352</v>
+        <v>595458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9168946505851182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8951928996406714</v>
+        <v>0.8917943293148076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9367990850509056</v>
+        <v>0.9369660163470906</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>49731</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38454</v>
+        <v>38481</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61497</v>
+        <v>62622</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2369462148446401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1832170070857326</v>
+        <v>0.1833433562451348</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2930042027216101</v>
+        <v>0.2983657437097901</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>102372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85522</v>
+        <v>85505</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120111</v>
+        <v>120046</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3065861336594823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2561245786578062</v>
+        <v>0.2560720535900896</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3597133163565689</v>
+        <v>0.3595190347992646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -1003,19 +1003,19 @@
         <v>152103</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129657</v>
+        <v>132314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172784</v>
+        <v>177092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2797077271075507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2384310272345398</v>
+        <v>0.2433179571407676</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3177398589050294</v>
+        <v>0.3256622629292998</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>160152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148386</v>
+        <v>147261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171429</v>
+        <v>171402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7630537851553599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.70699579727839</v>
+        <v>0.7016342562902099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8167829929142675</v>
+        <v>0.8166566437548651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -1053,19 +1053,19 @@
         <v>231536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>213797</v>
+        <v>213862</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>248386</v>
+        <v>248403</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6934138663405176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6402866836434311</v>
+        <v>0.6404809652007354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7438754213421938</v>
+        <v>0.7439279464099104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>367</v>
@@ -1074,19 +1074,19 @@
         <v>391688</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>371007</v>
+        <v>366699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>414134</v>
+        <v>411477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7202922728924493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6822601410949706</v>
+        <v>0.6743377370707003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7615689727654602</v>
+        <v>0.7566820428592324</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>67014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1333705332244771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -1199,19 +1199,19 @@
         <v>137903</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.203745126112127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -1220,19 +1220,19 @@
         <v>204917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.173760728081598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>435452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>534</v>
@@ -1270,19 +1270,19 @@
         <v>538939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>985</v>
@@ -1291,19 +1291,19 @@
         <v>974391</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="12">
@@ -1633,19 +1633,19 @@
         <v>30638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20727</v>
+        <v>21101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41747</v>
+        <v>43599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09889992995639536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06690619277881496</v>
+        <v>0.06811592689351201</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1347603174748218</v>
+        <v>0.1407404256244579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -1654,19 +1654,19 @@
         <v>58562</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45813</v>
+        <v>45032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73672</v>
+        <v>74978</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1654300401907572</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1294154725736254</v>
+        <v>0.1272106742111232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2081158388331083</v>
+        <v>0.2118038475750296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -1675,19 +1675,19 @@
         <v>89199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71649</v>
+        <v>71046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108312</v>
+        <v>108094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1343805341822986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.107940026037715</v>
+        <v>0.1070315639559613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1631737987790646</v>
+        <v>0.162845250300815</v>
       </c>
     </row>
     <row r="5">
@@ -1704,19 +1704,19 @@
         <v>279148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268039</v>
+        <v>266187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289059</v>
+        <v>288685</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9011000700436046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.865239682525178</v>
+        <v>0.8592595743755422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.933093807221185</v>
+        <v>0.931884073106488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -1725,19 +1725,19 @@
         <v>295434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280324</v>
+        <v>279018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308183</v>
+        <v>308964</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8345699598092428</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7918841611668914</v>
+        <v>0.78819615242497</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8705845274263746</v>
+        <v>0.8727893257888768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>540</v>
@@ -1746,19 +1746,19 @@
         <v>574583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555470</v>
+        <v>555688</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592133</v>
+        <v>592736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8656194658177013</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8368262012209357</v>
+        <v>0.8371547496991849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8920599739622852</v>
+        <v>0.8929684360440387</v>
       </c>
     </row>
     <row r="6">
@@ -1850,19 +1850,19 @@
         <v>74749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59753</v>
+        <v>59496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90911</v>
+        <v>90778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2991756096099881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2391544877646045</v>
+        <v>0.2381260213076762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3638627917726738</v>
+        <v>0.3633274332493202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -1871,19 +1871,19 @@
         <v>175828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156493</v>
+        <v>156124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>197400</v>
+        <v>197687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4520251139080856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4023170534497594</v>
+        <v>0.4013694441404312</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5074816458762355</v>
+        <v>0.5082199947718351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -1892,19 +1892,19 @@
         <v>250578</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222335</v>
+        <v>222272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275525</v>
+        <v>278311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3922445963999175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.34803401206111</v>
+        <v>0.3479362783947019</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4312957844651719</v>
+        <v>0.435656696490144</v>
       </c>
     </row>
     <row r="8">
@@ -1921,19 +1921,19 @@
         <v>175102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158940</v>
+        <v>159073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>190098</v>
+        <v>190355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7008243903900119</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6361372082273263</v>
+        <v>0.6366725667506797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7608455122353954</v>
+        <v>0.7618739786923235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -1942,19 +1942,19 @@
         <v>213151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191579</v>
+        <v>191292</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>232486</v>
+        <v>232855</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5479748860919145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4925183541237645</v>
+        <v>0.4917800052281648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5976829465502407</v>
+        <v>0.5986305558595687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>350</v>
@@ -1963,19 +1963,19 @@
         <v>388252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>363305</v>
+        <v>360519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>416495</v>
+        <v>416558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6077554036000825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5687042155348282</v>
+        <v>0.5643433035098563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.65196598793889</v>
+        <v>0.6520637216052982</v>
       </c>
     </row>
     <row r="9">
@@ -2067,19 +2067,19 @@
         <v>105387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1883133287584055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -2088,19 +2088,19 @@
         <v>234390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3154747453440803</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -2109,19 +2109,19 @@
         <v>339777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2608427932215529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
     </row>
     <row r="11">
@@ -2138,19 +2138,19 @@
         <v>454250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>478</v>
@@ -2159,19 +2159,19 @@
         <v>508585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481670</v>
+        <v>483610</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>534268</v>
+        <v>535634</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6845252546559197</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6482997365949633</v>
+        <v>0.6509095839565027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7190932077924722</v>
+        <v>0.7209308224364944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>890</v>
@@ -2180,19 +2180,19 @@
         <v>962835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>926586</v>
+        <v>929441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>993028</v>
+        <v>991230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7391572067784471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7113291578270742</v>
+        <v>0.7135210668750521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7623362368934739</v>
+        <v>0.7609558479901252</v>
       </c>
     </row>
     <row r="12">
@@ -2522,19 +2522,19 @@
         <v>27079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18745</v>
+        <v>18451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39122</v>
+        <v>39717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08099456163849855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05606723374148644</v>
+        <v>0.05518862455053933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1170156514050972</v>
+        <v>0.1187958128446437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2543,19 +2543,19 @@
         <v>67918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53215</v>
+        <v>53081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83040</v>
+        <v>83165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1797909236653093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1408681805185579</v>
+        <v>0.1405133187039997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2198201936132247</v>
+        <v>0.2201511476895215</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2564,19 +2564,19 @@
         <v>94997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77876</v>
+        <v>78392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113387</v>
+        <v>116976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1334056426261895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1093625251356371</v>
+        <v>0.110086852526197</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1592306106289157</v>
+        <v>0.1642710133071594</v>
       </c>
     </row>
     <row r="5">
@@ -2593,19 +2593,19 @@
         <v>307251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>295208</v>
+        <v>294613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315585</v>
+        <v>315879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9190054383615015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8829843485949035</v>
+        <v>0.8812041871553564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9439327662585136</v>
+        <v>0.9448113754494609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -2614,19 +2614,19 @@
         <v>309844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294722</v>
+        <v>294597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324547</v>
+        <v>324681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8202090763346906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7801798063867753</v>
+        <v>0.7798488523104784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8591318194814416</v>
+        <v>0.8594866812959997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -2635,19 +2635,19 @@
         <v>617095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598705</v>
+        <v>595116</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>634216</v>
+        <v>633700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8665943573738105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8407693893710844</v>
+        <v>0.8357289866928412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.890637474864363</v>
+        <v>0.8899131474738032</v>
       </c>
     </row>
     <row r="6">
@@ -2739,19 +2739,19 @@
         <v>73550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59922</v>
+        <v>60363</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87312</v>
+        <v>86740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2861883777197854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2331632267670563</v>
+        <v>0.2348774140591392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.339736470856743</v>
+        <v>0.3375108279386332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -2760,19 +2760,19 @@
         <v>172291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149090</v>
+        <v>149830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193628</v>
+        <v>194166</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.430545692444542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3725670306070477</v>
+        <v>0.37441793068129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.483864735224233</v>
+        <v>0.4852094972837677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>214</v>
@@ -2781,19 +2781,19 @@
         <v>245841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>219234</v>
+        <v>220733</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>273186</v>
+        <v>275845</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3740919427958327</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3336043265282295</v>
+        <v>0.3358859019377786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4157021522351342</v>
+        <v>0.4197491465917111</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +2810,19 @@
         <v>183448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169686</v>
+        <v>170258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197076</v>
+        <v>196635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7138116222802146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.660263529143257</v>
+        <v>0.6624891720613666</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.766836773232944</v>
+        <v>0.7651225859408608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>171</v>
@@ -2831,19 +2831,19 @@
         <v>227878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206541</v>
+        <v>206003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>251079</v>
+        <v>250339</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.569454307555458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5161352647757673</v>
+        <v>0.5147905027162324</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6274329693929525</v>
+        <v>0.62558206931871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>389</v>
@@ -2852,19 +2852,19 @@
         <v>411326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>383981</v>
+        <v>381322</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>437933</v>
+        <v>436434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6259080572041672</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5842978477648658</v>
+        <v>0.5802508534082889</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6663956734717704</v>
+        <v>0.6641140980622213</v>
       </c>
     </row>
     <row r="9">
@@ -2956,19 +2956,19 @@
         <v>100629</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1701741720197465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -2977,19 +2977,19 @@
         <v>240209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.308779593374607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>303</v>
@@ -2998,19 +2998,19 @@
         <v>340838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.248921475608498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
     </row>
     <row r="11">
@@ -3027,19 +3027,19 @@
         <v>490699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -3048,19 +3048,19 @@
         <v>537722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>511333</v>
+        <v>508571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>563638</v>
+        <v>563315</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.691220406625393</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6572987337499544</v>
+        <v>0.6537485105537576</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7245347888315323</v>
+        <v>0.7241195124279722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>979</v>
@@ -3069,19 +3069,19 @@
         <v>1028421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>995807</v>
+        <v>995354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1061365</v>
+        <v>1060253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.751078524391502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7272595485841984</v>
+        <v>0.7269292273468205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7751383417055634</v>
+        <v>0.7743263781760488</v>
       </c>
     </row>
     <row r="12">
@@ -3411,19 +3411,19 @@
         <v>51800</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40915</v>
+        <v>41731</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63724</v>
+        <v>62525</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1272471108647784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1005089080502836</v>
+        <v>0.1025132614318445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1565392890791573</v>
+        <v>0.153593361258121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -3432,19 +3432,19 @@
         <v>80973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68564</v>
+        <v>69187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92993</v>
+        <v>92581</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1855289421963276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1570966837927642</v>
+        <v>0.1585230242971446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2130684992524404</v>
+        <v>0.21212628289124</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -3453,19 +3453,19 @@
         <v>132773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117449</v>
+        <v>117753</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>150093</v>
+        <v>149841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1574024878849335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1392355177147666</v>
+        <v>0.1395961559003818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1779359910878668</v>
+        <v>0.1776370655093149</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>355280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>343356</v>
+        <v>344555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>366165</v>
+        <v>365349</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8727528891352215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8434607109208426</v>
+        <v>0.846406638741879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8994910919497163</v>
+        <v>0.8974867385681554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>674</v>
@@ -3503,19 +3503,19 @@
         <v>355472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343452</v>
+        <v>343864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>367881</v>
+        <v>367258</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8144710578036722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7869315007475597</v>
+        <v>0.78787371710876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8429033162072359</v>
+        <v>0.8414769757028554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1167</v>
@@ -3524,19 +3524,19 @@
         <v>710751</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>693431</v>
+        <v>693683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726075</v>
+        <v>725771</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8425975121150667</v>
+        <v>0.8425975121150666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8220640089121332</v>
+        <v>0.822362934490685</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8607644822852335</v>
+        <v>0.8604038440996183</v>
       </c>
     </row>
     <row r="6">
@@ -3628,19 +3628,19 @@
         <v>99463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86418</v>
+        <v>87477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113072</v>
+        <v>114073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3238225597562183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2813515547885117</v>
+        <v>0.2847993678348982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3681277882821254</v>
+        <v>0.3713872135001777</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>475</v>
@@ -3649,19 +3649,19 @@
         <v>254161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>239368</v>
+        <v>237792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269048</v>
+        <v>269468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5516954464079742</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5195863898970279</v>
+        <v>0.5161648565225229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.584009955465807</v>
+        <v>0.5849227065624971</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>630</v>
@@ -3670,19 +3670,19 @@
         <v>353624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>332208</v>
+        <v>331995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>375571</v>
+        <v>375885</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4605416964263513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4326515074098514</v>
+        <v>0.4323732736915156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4891242559491641</v>
+        <v>0.4895336264306634</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>207690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>194081</v>
+        <v>193080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220735</v>
+        <v>219676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6761774402437817</v>
+        <v>0.6761774402437818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6318722117178746</v>
+        <v>0.6286127864998224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7186484452114884</v>
+        <v>0.7152006321651021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>399</v>
@@ -3720,19 +3720,19 @@
         <v>206529</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191642</v>
+        <v>191222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221322</v>
+        <v>222898</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4483045535920256</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4159900445341934</v>
+        <v>0.4150772934375029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4804136101029722</v>
+        <v>0.4838351434774772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -3741,19 +3741,19 @@
         <v>414219</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>392272</v>
+        <v>391958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>435635</v>
+        <v>435848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5394583035736488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5108757440508358</v>
+        <v>0.5104663735693366</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5673484925901484</v>
+        <v>0.567626726308484</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>151263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2117835912021879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>623</v>
@@ -3866,19 +3866,19 @@
         <v>335134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.373560170511435</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>855</v>
@@ -3887,19 +3887,19 @@
         <v>486397</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3018533270918139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +3916,19 @@
         <v>562969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>545687</v>
+        <v>543884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>581398</v>
+        <v>580634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.788216408797812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7640188884092403</v>
+        <v>0.7614952744278833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8140188062401952</v>
+        <v>0.8129485914150197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1073</v>
@@ -3937,19 +3937,19 @@
         <v>562001</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541307</v>
+        <v>539499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581611</v>
+        <v>582118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.626439829488565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6033725220545011</v>
+        <v>0.6013574300649834</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6482985055131995</v>
+        <v>0.6488634410877104</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1865</v>
@@ -3958,19 +3958,19 @@
         <v>1124971</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1095634</v>
+        <v>1093974</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1153902</v>
+        <v>1151373</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.698146672908186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6799405690851211</v>
+        <v>0.6789101356535956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7161006328651891</v>
+        <v>0.7145310924121285</v>
       </c>
     </row>
     <row r="12">
